--- a/data/japan_costs/ccs_japan.xlsx
+++ b/data/japan_costs/ccs_japan.xlsx
@@ -24,10 +24,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>ccs</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>http://www.meti.go.jp/committee/kenkyukai/energy/suiso_nenryodenchi/co2free/pdf/006_02_00.pdf</t>
+  </si>
+  <si>
+    <t>我が国のCCS制作について</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイサク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>About CCS policy in Japan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tomakomai plan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tomakomai P.66(62)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://committees.jsce.or.jp/enedobo/system/files/CCSreport.pdf</t>
   </si>
 </sst>
 </file>
@@ -73,8 +100,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -357,17 +387,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42675</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/japan_costs/ccs_japan.xlsx
+++ b/data/japan_costs/ccs_japan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>http://www.meti.go.jp/committee/kenkyukai/energy/suiso_nenryodenchi/co2free/pdf/006_02_00.pdf</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>http://committees.jsce.or.jp/enedobo/system/files/CCSreport.pdf</t>
+  </si>
+  <si>
+    <t>http://www.meti.go.jp/committee/kenkyukai/sangi/ccs_jissho/pdf/001_05_00.pdf</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C9"/>
+  <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -436,6 +439,16 @@
         <v>4</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/japan_costs/ccs_japan.xlsx
+++ b/data/japan_costs/ccs_japan.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>http://www.meti.go.jp/committee/kenkyukai/energy/suiso_nenryodenchi/co2free/pdf/006_02_00.pdf</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>我が国のCCS制作について</t>
     <rPh sb="0" eb="1">
@@ -46,25 +43,76 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Tomakomai plan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Tomakomai P.66(62)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>http://www.meti.go.jp/committee/kenkyukai/sangi/ccs_jissho/pdf/001_05_00.pdf</t>
+  </si>
+  <si>
     <t>http://committees.jsce.or.jp/enedobo/system/files/CCSreport.pdf</t>
-  </si>
-  <si>
-    <t>http://www.meti.go.jp/committee/kenkyukai/sangi/ccs_jissho/pdf/001_05_00.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reference</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCSを取り巻く状況（資料５）</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.meti.go.jp/committee/kenkyukai/energy/suiso_nenryodenchi/co2free/pdf/006_02_00.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Overview of Tomakomai plan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二酸化炭素削減技術実証試験事業</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次世代火力発電に係る技術ロードマップ 技術参考資料集｣</t>
+  </si>
+  <si>
+    <t>http://www.meti.go.jp/press/2016/06/20160630003/20160630003-2.pdf</t>
+  </si>
+  <si>
+    <t>CO2 capture cost for each way (P.15)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12(11)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assumtion for model plants in 2030</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +125,40 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -98,20 +180,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,67 +491,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C13"/>
+  <dimension ref="A2:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="3">
+        <v>42675</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>42675</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" t="s">
+      <c r="B15" s="1">
+        <v>43252</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
         <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/japan_costs/ccs_japan.xlsx
+++ b/data/japan_costs/ccs_japan.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10810" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="general" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>我が国のCCS制作について</t>
     <rPh sb="0" eb="1">
@@ -106,6 +107,12 @@
   <si>
     <t>assumtion for model plants in 2030</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第47回 産業構造審議会 産業技術環境分科会 研究開発・イノベーション小委員会 評価ワーキンググループ</t>
+  </si>
+  <si>
+    <t>https://www.meti.go.jp/shingikai/sankoshin/sangyo_gijutsu/kenkyu_innovation/hyoka_wg/047.html</t>
   </si>
 </sst>
 </file>
@@ -188,7 +195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -208,6 +215,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -491,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E29"/>
+  <dimension ref="A2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -602,11 +612,6 @@
       </c>
       <c r="C24" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -618,4 +623,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="7">
+        <v>43518</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/japan_costs/ccs_japan.xlsx
+++ b/data/japan_costs/ccs_japan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>我が国のCCS制作について</t>
     <rPh sb="0" eb="1">
@@ -101,18 +101,74 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>12(11)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>assumtion for model plants in 2030</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>第47回 産業構造審議会 産業技術環境分科会 研究開発・イノベーション小委員会 評価ワーキンググループ</t>
   </si>
   <si>
     <t>https://www.meti.go.jp/shingikai/sankoshin/sangyo_gijutsu/kenkyu_innovation/hyoka_wg/047.html</t>
+  </si>
+  <si>
+    <t>10(9)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an example of assumptions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.3 JPY/kg * 0.864 kg/kWh(CO2 emission factor) = 6.3 JPY/kWh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the length of pipe line is assumed as 20km</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.3 JPY/kWh: CCS cost (pipeline) derived from an assumption in 2005 (7300 JPY/ton)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.8 JPY/kWh: CCS cost (shipping) derived from an assumption of shipping cost in 2007 (4000JPY/ton)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7.3 + 4.0) JPY/kg * 0.864 kg/kWh = 9.8 JPY/kWh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>example)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assuming power generating cost with coal is 8.9 JPY/kWh,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CCS cost will be 15.2 JPY/kWh for pipeline and 18.7 JPY/kWh for shipping</t>
+  </si>
+  <si>
+    <t>https://nedodcweb.org/wp-content/uploads/2018/01/CCS-Cost-Estimates.pdf</t>
+  </si>
+  <si>
+    <t>same assumption more detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.jst.go.jp/lcs/pdf/fy2016-pp-06.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低炭素社会の実現に向けた 技術および経済・社会の定量的シナリオに基づく イノベーション政策立案のための提案書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCS（二酸化炭素回収貯留）の概要と展望（Vol.2） －膜による分離回収コスト及び貯留コストの評価と課題－</t>
+  </si>
+  <si>
+    <t>“Survey on the Carbon Capture and Storage process (vol.2): The CO2 Capture Cost by the Membrane Separation and the CCS Cost of the Storage and the Injection”</t>
+  </si>
+  <si>
+    <t>detailed costs for CCS equipments (pipes, tanks, storage, freezer, etc.)</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -501,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E24"/>
+  <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A14" zoomScale="99" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -595,7 +651,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -603,15 +669,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -627,10 +731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -640,7 +744,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -648,11 +752,39 @@
         <v>43518</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>